--- a/Results/MEPS19_PO.xlsx
+++ b/Results/MEPS19_PO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,20 +521,20 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Reweighing-RF</t>
+          <t>FAIR-scalar</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8418460272149351</v>
+        <v>0.8532869076598608</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03989985348068681</v>
+        <v>0.0435585942065631</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06532338239655312</v>
+        <v>0.0779333828114316</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05661934231282612</v>
+        <v>0.0508676131537435</v>
       </c>
     </row>
     <row r="6">
@@ -544,54 +544,54 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8532869076598608</v>
+        <v>0.8429330734075058</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0435585942065631</v>
+        <v>0.01566769113421343</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0779333828114316</v>
+        <v>0.06187451293890803</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0508676131537435</v>
+        <v>0.003857499604655801</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>FAIR-betaSF</t>
+          <t>FAIR-scalar</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8231961161550836</v>
+        <v>0.8322064661888391</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002957416065856314</v>
+        <v>0.02755879737562163</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05016187943017211</v>
+        <v>0.02047041083673627</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01274117218784127</v>
+        <v>0.0512204495776982</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>FAIR-betaSF</t>
+          <t>FAIR-scalar</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8213397563715421</v>
+        <v>0.8249486342566891</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01302418639540459</v>
+        <v>0.04259258586664403</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05204419838566181</v>
+        <v>0.00987566920223964</v>
       </c>
       <c r="E8" t="n">
-        <v>0.007450552117461484</v>
+        <v>0.08161348644225473</v>
       </c>
     </row>
     <row r="9">
@@ -601,16 +601,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8275593121961837</v>
+        <v>0.8231961161550836</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02845339954673786</v>
+        <v>0.002957416065856314</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06945910604447189</v>
+        <v>0.05016187943017211</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02589491566557456</v>
+        <v>0.01274117218784127</v>
       </c>
     </row>
     <row r="10">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8245633676668159</v>
+        <v>0.8213397563715421</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01489990077034368</v>
+        <v>0.01302418639540459</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05892196136098576</v>
+        <v>0.05204419838566181</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006479796141244998</v>
+        <v>0.007450552117461484</v>
       </c>
     </row>
     <row r="11">
@@ -639,16 +639,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8269801379510492</v>
+        <v>0.8245633676668159</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02373673077998117</v>
+        <v>0.01489990077034368</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06505524798207725</v>
+        <v>0.05892196136098576</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02111394248270843</v>
+        <v>0.006479796141244998</v>
       </c>
     </row>
     <row r="12">
@@ -839,6 +839,139 @@
       </c>
       <c r="E21" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_diff</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8302625828264465</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.02944863032469148</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.05894218845694421</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.02860398233143911</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_diff</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8192432199823124</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.08451852473289925</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.006273884810911282</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1556183588654977</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_diff</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8441752332622365</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.03719159002641086</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.06572443150312647</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0514414924731746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_non_diff</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8035592575159067</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.06178561315567393</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.009008335998481243</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.09131466376092952</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_non_diff</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8166663330651663</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.05413607356345242</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.001425952685525956</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.09825238775328381</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_non_diff</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8338314062486807</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.02649160268607017</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1038225669546979</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.002480511230547987</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_non_diff</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8505298881426897</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.03351479536512329</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.08391377903569355</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.03441460295234904</v>
       </c>
     </row>
   </sheetData>
